--- a/individual_case_outputs/avey/204.xlsx
+++ b/individual_case_outputs/avey/204.xlsx
@@ -597,7 +597,7 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>acromegaly</t>
+          <t>genetic growth issue</t>
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
@@ -676,7 +676,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>pituitary adenoma</t>
+          <t>gigantism</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
